--- a/biology/Botanique/Solanum_tegore/Solanum_tegore.xlsx
+++ b/biology/Botanique/Solanum_tegore/Solanum_tegore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum tegore est une espèce d'arbuste, appartenant à la famille des Solanaceae.
-Il est connu en Guyane sous les noms de mavévé chien (Créole), uluwu kãsĩ (Wayãpi) et isuu aβeya (Palikur), où il est confondu avec Solanum endopogon[3], et au Suriname comme forestiki[4].
+Il est connu en Guyane sous les noms de mavévé chien (Créole), uluwu kãsĩ (Wayãpi) et isuu aβeya (Palikur), où il est confondu avec Solanum endopogon, et au Suriname comme forestiki.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tout l'ancien genre Cyphomandra, C. tegore a été intégré au genre Solanum[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tout l'ancien genre Cyphomandra, C. tegore a été intégré au genre Solanum.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solanum tegore est présent du Suriname, en Guyane et à l'est du Brésil (Amapá, Pará)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solanum tegore est présent du Suriname, en Guyane et à l'est du Brésil (Amapá, Pará).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum tegore est un petit arbre haut de 1,5 à 5 m.
 Les branches sont modérément à densément pubérulentes et peu pileuses avec des poils longs de 1 à 2 mm.
@@ -591,7 +609,7 @@
 L'ovaire est glanduleux-puberulent avec le style cylindrique, glabre, non dilaté distalement, long de 6 mm pour 0,3-0,5 mm de diamètre, dépassant de 1-2 mm au-delà des étamines.
 Le stigmate est tronqué, mesurant 0,3-0,5 mm de diamètre.
 Le fruit est ovoïde ou globuleux à apex obtus, long de 1,5-3,5 cm pour 1,5-2,5 cm de diamètre, modérément glanduleux-pubérulent, devenant jaune à maturité (selon Aublet).
-Les graines sont glabres, longues de 4 mm et autant de large[4],[6].
+Les graines sont glabres, longues de 4 mm et autant de large,.
 </t>
         </is>
       </c>
@@ -620,10 +638,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solanum tegore pousse dans les clairières de forêt ancienne autour de 70-700 m d'altitude. Il fleurit en mars et en juin jusqu'en décembre, et fructifie en mars, juin, août, septembre, novembre et décembre[4].
-Solanum tegore est pollinisé par les abeilles[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solanum tegore pousse dans les clairières de forêt ancienne autour de 70-700 m d'altitude. Il fleurit en mars et en juin jusqu'en décembre, et fructifie en mars, juin, août, septembre, novembre et décembre.
+Solanum tegore est pollinisé par les abeilles.
 </t>
         </is>
       </c>
@@ -652,14 +672,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En Guyane, les populations Créoles emploient Solanum tegore pour soigner les maladies de foie et la gale.
 Les Wayapi s'en servent pour soigner les enfants de "maladies d'origine magique", et les adultes pour lutter contre la fièvre.
-Les Palikur en font un shampooing contre la calvitie, un bain pour retarder le vieillissement de la peau, ainsi qu'un charme de séduction[3].
-Cette plante était apparemment autrefois cultivée chez les Kali'na[8].
-Chimie
-Les espèces de ce sous-genre contiennent une coumarine, la scopolétine[9], ainsi que des glucoalcaloides comme le reste du genre Solanum[3].
+Les Palikur en font un shampooing contre la calvitie, un bain pour retarder le vieillissement de la peau, ainsi qu'un charme de séduction.
+Cette plante était apparemment autrefois cultivée chez les Kali'na.
 </t>
         </is>
       </c>
@@ -685,12 +705,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce sous-genre contiennent une coumarine, la scopolétine, ainsi que des glucoalcaloides comme le reste du genre Solanum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Solanum_tegore</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_tegore</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant[8] : 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 3. SOLANUM (Tegore) foliis inferioribus ampliſſimis, profundè ſinuatis, ſuperioribus cordatis. (TABULA 84.) 
 Planta caulem ſexpedalem, ramoſum, piloſum, è radice errrittens ; ramulis plerumque ternatis. Folia inferiora ampliſſima, profundè ſinuata, lobis acutis, alterna, hirſuta. Folia ſuperiora minora, cordata, acuta, hirſuta, petiolata. Flores exigui, ſubvirides, corymbofi, intrà bifurcationem ramorum. Fructus ; baccæ luteſcentes, globoſæ, nucis ferè magnitudine.
 Tota planta tetrum exhalat odorem.
